--- a/лабы/Лаба 20/результат.xlsx
+++ b/лабы/Лаба 20/результат.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeka8833\IdeaProjects\LabsKPITwo\лабы\Лаба 20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D918F09-2738-473F-8332-990E782DBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3716B-99EB-4472-B6F3-16C99CBA708C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,304 +160,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10000"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>-2.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>-2.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21</c:v>
+                  <c:v>-2.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>-2.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35</c:v>
+                  <c:v>-2.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42</c:v>
+                  <c:v>-2.58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49</c:v>
+                  <c:v>-2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>-2.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63</c:v>
+                  <c:v>-2.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77</c:v>
+                  <c:v>-2.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84</c:v>
+                  <c:v>-2.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91</c:v>
+                  <c:v>-2.09</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98</c:v>
+                  <c:v>-2.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.05</c:v>
+                  <c:v>-1.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>-1.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.19</c:v>
+                  <c:v>-1.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.26</c:v>
+                  <c:v>-1.74</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.33</c:v>
+                  <c:v>-1.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4</c:v>
+                  <c:v>-1.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.47</c:v>
+                  <c:v>-1.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.54</c:v>
+                  <c:v>-1.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.61</c:v>
+                  <c:v>-1.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.68</c:v>
+                  <c:v>-1.32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.75</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.82</c:v>
+                  <c:v>-1.18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.89</c:v>
+                  <c:v>-1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.96</c:v>
+                  <c:v>-1.04</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>-0.97000000000000097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1</c:v>
+                  <c:v>-0.90000000000000102</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.17</c:v>
+                  <c:v>-0.83000000000000096</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>-0.76000000000000101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.31</c:v>
+                  <c:v>-0.69000000000000095</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.38</c:v>
+                  <c:v>-0.62000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>-0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.52</c:v>
+                  <c:v>-0.48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.59</c:v>
+                  <c:v>-0.41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6599999999999899</c:v>
+                  <c:v>-0.34</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7299999999999902</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8699999999999899</c:v>
+                  <c:v>-0.13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9399999999999902</c:v>
+                  <c:v>-6.0000000000000803E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.00999999999999</c:v>
+                  <c:v>9.9999999999991207E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0799999999999899</c:v>
+                  <c:v>7.99999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1499999999999901</c:v>
+                  <c:v>0.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.21999999999999</c:v>
+                  <c:v>0.219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2899999999999898</c:v>
+                  <c:v>0.28999999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.3599999999999901</c:v>
+                  <c:v>0.35999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.4299999999999899</c:v>
+                  <c:v>0.42999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4999999999999898</c:v>
+                  <c:v>0.499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5699999999999901</c:v>
+                  <c:v>0.56999999999999895</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.6399999999999899</c:v>
+                  <c:v>0.63999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7099999999999902</c:v>
+                  <c:v>0.70999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.77999999999999</c:v>
+                  <c:v>0.77999999999999903</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.8499999999999899</c:v>
+                  <c:v>0.84999999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.9199999999999902</c:v>
+                  <c:v>0.91999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.98999999999999</c:v>
+                  <c:v>0.98999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0599999999999898</c:v>
+                  <c:v>1.0599999999999901</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1299999999999901</c:v>
+                  <c:v>1.1299999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1999999999999904</c:v>
+                  <c:v>1.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.2699999999999898</c:v>
+                  <c:v>1.26999999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3399999999999901</c:v>
+                  <c:v>1.3399999999999901</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.4099999999999904</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4799999999999898</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5499999999999901</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6199999999999903</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.6899999999999897</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.76</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.83</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.97</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.04</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1100000000000003</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.18</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.25</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.32</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.39</c:v>
+                  <c:v>2.3899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.46</c:v>
+                  <c:v>2.4599999999999902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.53</c:v>
+                  <c:v>2.52999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.6</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.67</c:v>
+                  <c:v>2.6699999999999902</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.74</c:v>
+                  <c:v>2.73999999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.81</c:v>
+                  <c:v>2.8099999999999898</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.88</c:v>
+                  <c:v>2.8799999999999901</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.95</c:v>
+                  <c:v>2.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.02</c:v>
+                  <c:v>3.0199999999999898</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.09</c:v>
+                  <c:v>3.0899999999999901</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.16</c:v>
+                  <c:v>3.1599999999999899</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.23</c:v>
+                  <c:v>3.2299999999999902</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.3</c:v>
+                  <c:v>3.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.37</c:v>
+                  <c:v>3.3699999999999899</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.44</c:v>
+                  <c:v>3.4399999999999902</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.51</c:v>
+                  <c:v>3.50999999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.58</c:v>
+                  <c:v>3.5799999999999899</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.65</c:v>
+                  <c:v>3.6499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.72</c:v>
+                  <c:v>3.71999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.79</c:v>
+                  <c:v>3.7899999999999898</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.86</c:v>
+                  <c:v>3.8599999999999901</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.93</c:v>
+                  <c:v>3.9299999999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -472,301 +472,301 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65667708422913396</c:v>
+                  <c:v>0.60569441934294699</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71056039072869903</c:v>
+                  <c:v>0.61172148908461199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76223676041441601</c:v>
+                  <c:v>0.61809615185868605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81211845917457903</c:v>
+                  <c:v>0.62483353983877599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.86050568879266698</c:v>
+                  <c:v>0.63194892561996896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.90762311597025302</c:v>
+                  <c:v>0.63945766850396801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95364250987778298</c:v>
+                  <c:v>0.64737515629723696</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99869744764166102</c:v>
+                  <c:v>0.65571674278421399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.04289324393949</c:v>
+                  <c:v>0.66449768108997398</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0863138761497</c:v>
+                  <c:v>0.67373305319784904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1290269481923101</c:v>
+                  <c:v>0.68343769593673598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.17108733267659</c:v>
+                  <c:v>0.69362612379981303</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2125398973681401</c:v>
+                  <c:v>0.70431244900077095</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.25342158157618</c:v>
+                  <c:v>0.715510299215529</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.29376300087818</c:v>
+                  <c:v>0.72723273349705997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.33358970290262</c:v>
+                  <c:v>0.73949215688879699</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.37292316040592</c:v>
+                  <c:v>0.75230023429878501</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4117815634373401</c:v>
+                  <c:v>0.76566780423304104</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4501804556767</c:v>
+                  <c:v>0.77960479302300001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4881332483949801</c:v>
+                  <c:v>0.79412013021916805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.52565163724639</c:v>
+                  <c:v>0.80922166586114697</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.56274594116947</c:v>
+                  <c:v>0.82491609037312796</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.59942537834092</c:v>
+                  <c:v>0.84120885787293298</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6356982909131199</c:v>
+                  <c:v>0.85810411372057804</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6715723278510599</c:v>
+                  <c:v>0.87560462716737297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7070545933440699</c:v>
+                  <c:v>0.89371172999627502</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7421517668469699</c:v>
+                  <c:v>0.912425262065783</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7768701996942999</c:v>
+                  <c:v>0.93174352467971699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.81121599235251</c:v>
+                  <c:v>0.95166324270025304</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8451950556715999</c:v>
+                  <c:v>0.97217953629800202</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8788131589288699</c:v>
+                  <c:v>0.99328590318739096</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.91207596699317</c:v>
+                  <c:v>1.0149742121252101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.9449890685559399</c:v>
+                  <c:v>1.0372347083529101</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.97755799705817</c:v>
+                  <c:v>1.06005603153782</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.00978824567804</c:v>
+                  <c:v>1.08342524661537</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.04168527752236</c:v>
+                  <c:v>1.10732788775483</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0732545319779399</c:v>
+                  <c:v>1.1317480154683399</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1045014280215399</c:v>
+                  <c:v>1.1566682866618201</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.1354313651537602</c:v>
+                  <c:v>1.18207003719186</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.16604972250913</c:v>
+                  <c:v>1.20793337625362</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1963618565988501</c:v>
+                  <c:v>1.23423729168688</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.2263730980619898</c:v>
+                  <c:v>1.26095976506158</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2560887477318898</c:v>
+                  <c:v>1.28807789519697</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2855140722669498</c:v>
+                  <c:v>1.3155680285889899</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.31465429954604</c:v>
+                  <c:v>1.3434058950758201</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.34351461398778</c:v>
+                  <c:v>1.37156674696715</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.3721001519185498</c:v>
+                  <c:v>1.40002549980264</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.4004159970855099</c:v>
+                  <c:v>1.42875687289247</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.42846717638712</c:v>
+                  <c:v>1.4577355278267099</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.45625865587381</c:v>
+                  <c:v>1.4869362032193001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4837953370556298</c:v>
+                  <c:v>1.51633384407365</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.5110820535403602</c:v>
+                  <c:v>1.5459037243132101</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.5381235680149001</c:v>
+                  <c:v>1.57562156120712</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.5649245695745</c:v>
+                  <c:v>1.60546362062939</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.5914896713974498</c:v>
+                  <c:v>1.6354068123126599</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.61782340875786</c:v>
+                  <c:v>1.6654287744862999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.6439302373650402</c:v>
+                  <c:v>1.69550794751602</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.6698145320151001</c:v>
+                  <c:v>1.7256236363808699</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.6954805855384301</c:v>
+                  <c:v>1.75575606202877</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.7209326080252398</c:v>
+                  <c:v>1.78588640183667</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.7461747263103802</c:v>
+                  <c:v>1.8159968195652501</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.7712109836987402</c:v>
+                  <c:v>1.84607048533587</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.7960453399118501</c:v>
+                  <c:v>1.8760915862696199</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.8206816712373199</c:v>
+                  <c:v>1.9060453285144401</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.8451237708625698</c:v>
+                  <c:v>1.9359179314469099</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.8693753493754599</c:v>
+                  <c:v>1.96569661487234</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.8934400354148502</c:v>
+                  <c:v>1.9953695800623701</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.9173213764552002</c:v>
+                  <c:v>2.0249259854658699</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.9410228397100999</c:v>
+                  <c:v>2.0543559179093398</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.96454781314057</c:v>
+                  <c:v>2.0836503600700298</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.9878996065549099</c:v>
+                  <c:v>2.1128011549618799</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0110814527878902</c:v>
+                  <c:v>2.14180096812286</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.0340965089477598</c:v>
+                  <c:v>2.1706432481357099</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.0569478577207998</c:v>
+                  <c:v>2.1993221860545198</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.0796385087236202</c:v>
+                  <c:v>2.2278326742479901</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.1021713998944702</c:v>
+                  <c:v>2.25617026510964</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.1245493989155699</c:v>
+                  <c:v>2.28433113002581</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.1467753046589899</c:v>
+                  <c:v>2.3123120189353501</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.1688518486497399</c:v>
+                  <c:v>2.3401102207618001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.1907816965398599</c:v>
+                  <c:v>2.3677235249489401</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.21256744958818</c:v>
+                  <c:v>2.39515018428534</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.2342116461411599</c:v>
+                  <c:v>2.4223888791624799</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.25571676311018</c:v>
+                  <c:v>2.4494386833744599</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.27708521744175</c:v>
+                  <c:v>2.4762990315345599</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.29831936757716</c:v>
+                  <c:v>2.5029696881562602</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.3194215148985302</c:v>
+                  <c:v>2.5294507184213302</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.3403939051588498</c:v>
+                  <c:v>2.5557424606375099</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.3612387298935902</c:v>
+                  <c:v>2.58184550037039</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.3819581278120099</c:v>
+                  <c:v>2.6077606462201599</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.4025541861664599</c:v>
+                  <c:v>2.63348890720206</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.4230289420983699</c:v>
+                  <c:v>2.6590314716801702</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.4433843839596201</c:v>
+                  <c:v>2.6843896877972</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.4636224526083801</c:v>
+                  <c:v>2.7095650453375999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.4837450426786898</c:v>
+                  <c:v>2.7345591589577301</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.5037540038231101</c:v>
+                  <c:v>2.7593737527145001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.5236511419279899</c:v>
+                  <c:v>2.7840106458228799</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.5434382203010801</c:v>
+                  <c:v>2.80847173957227</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.56311696083129</c:v>
+                  <c:v>2.8327590053326102</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.5826890451203899</c:v>
+                  <c:v>2.8568744735821801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,304 +823,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>-2.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>-2.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.21</c:v>
+                  <c:v>-2.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>-2.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35</c:v>
+                  <c:v>-2.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42</c:v>
+                  <c:v>-2.58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49</c:v>
+                  <c:v>-2.5099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>-2.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63</c:v>
+                  <c:v>-2.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77</c:v>
+                  <c:v>-2.23</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84</c:v>
+                  <c:v>-2.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91</c:v>
+                  <c:v>-2.09</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.98</c:v>
+                  <c:v>-2.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.05</c:v>
+                  <c:v>-1.95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>-1.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.19</c:v>
+                  <c:v>-1.81</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.26</c:v>
+                  <c:v>-1.74</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.33</c:v>
+                  <c:v>-1.67</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4</c:v>
+                  <c:v>-1.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.47</c:v>
+                  <c:v>-1.53</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.54</c:v>
+                  <c:v>-1.46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.61</c:v>
+                  <c:v>-1.39</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.68</c:v>
+                  <c:v>-1.32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.75</c:v>
+                  <c:v>-1.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.82</c:v>
+                  <c:v>-1.18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.89</c:v>
+                  <c:v>-1.1100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.96</c:v>
+                  <c:v>-1.04</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>-0.97000000000000097</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1</c:v>
+                  <c:v>-0.90000000000000102</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.17</c:v>
+                  <c:v>-0.83000000000000096</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2400000000000002</c:v>
+                  <c:v>-0.76000000000000101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.31</c:v>
+                  <c:v>-0.69000000000000095</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.38</c:v>
+                  <c:v>-0.62000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.4500000000000002</c:v>
+                  <c:v>-0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.52</c:v>
+                  <c:v>-0.48</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.59</c:v>
+                  <c:v>-0.41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6599999999999899</c:v>
+                  <c:v>-0.34</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7299999999999902</c:v>
+                  <c:v>-0.27</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.7999999999999901</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.8699999999999899</c:v>
+                  <c:v>-0.13</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.9399999999999902</c:v>
+                  <c:v>-6.0000000000000803E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.00999999999999</c:v>
+                  <c:v>9.9999999999991207E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0799999999999899</c:v>
+                  <c:v>7.99999999999991E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.1499999999999901</c:v>
+                  <c:v>0.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.21999999999999</c:v>
+                  <c:v>0.219999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2899999999999898</c:v>
+                  <c:v>0.28999999999999898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.3599999999999901</c:v>
+                  <c:v>0.35999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.4299999999999899</c:v>
+                  <c:v>0.42999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4999999999999898</c:v>
+                  <c:v>0.499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.5699999999999901</c:v>
+                  <c:v>0.56999999999999895</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.6399999999999899</c:v>
+                  <c:v>0.63999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.7099999999999902</c:v>
+                  <c:v>0.70999999999999897</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.77999999999999</c:v>
+                  <c:v>0.77999999999999903</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.8499999999999899</c:v>
+                  <c:v>0.84999999999999898</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.9199999999999902</c:v>
+                  <c:v>0.91999999999999904</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.98999999999999</c:v>
+                  <c:v>0.98999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.0599999999999898</c:v>
+                  <c:v>1.0599999999999901</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1299999999999901</c:v>
+                  <c:v>1.1299999999999899</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.1999999999999904</c:v>
+                  <c:v>1.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.2699999999999898</c:v>
+                  <c:v>1.26999999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.3399999999999901</c:v>
+                  <c:v>1.3399999999999901</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.4099999999999904</c:v>
+                  <c:v>1.41</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.4799999999999898</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.5499999999999901</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.6199999999999903</c:v>
+                  <c:v>1.62</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.6899999999999897</c:v>
+                  <c:v>1.69</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.76</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.83</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.97</c:v>
+                  <c:v>1.97</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.04</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.1100000000000003</c:v>
+                  <c:v>2.11</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.18</c:v>
+                  <c:v>2.1800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.25</c:v>
+                  <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.32</c:v>
+                  <c:v>2.3199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.39</c:v>
+                  <c:v>2.3899999999999899</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.46</c:v>
+                  <c:v>2.4599999999999902</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.53</c:v>
+                  <c:v>2.52999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.6</c:v>
+                  <c:v>2.5999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.67</c:v>
+                  <c:v>2.6699999999999902</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.74</c:v>
+                  <c:v>2.73999999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.81</c:v>
+                  <c:v>2.8099999999999898</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.88</c:v>
+                  <c:v>2.8799999999999901</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.95</c:v>
+                  <c:v>2.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.02</c:v>
+                  <c:v>3.0199999999999898</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.09</c:v>
+                  <c:v>3.0899999999999901</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.16</c:v>
+                  <c:v>3.1599999999999899</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.23</c:v>
+                  <c:v>3.2299999999999902</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.3</c:v>
+                  <c:v>3.2999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.37</c:v>
+                  <c:v>3.3699999999999899</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.44</c:v>
+                  <c:v>3.4399999999999902</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.51</c:v>
+                  <c:v>3.50999999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.58</c:v>
+                  <c:v>3.5799999999999899</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.65</c:v>
+                  <c:v>3.6499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.72</c:v>
+                  <c:v>3.71999999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.79</c:v>
+                  <c:v>3.7899999999999898</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.86</c:v>
+                  <c:v>3.8599999999999901</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.93</c:v>
+                  <c:v>3.9299999999999899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,304 +1132,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1.17741002251547</c:v>
+                  <c:v>0.59999999999999898</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2072775617468301</c:v>
+                  <c:v>0.60569441929068801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2374127705314399</c:v>
+                  <c:v>0.61172148897669698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.26779302807815</c:v>
+                  <c:v>0.61809615169158605</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2983954201708701</c:v>
+                  <c:v>0.62483353960885202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.32919686684762</c:v>
+                  <c:v>0.631948925323497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3601742489973501</c:v>
+                  <c:v>0.63945766813718297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.39130453216128</c:v>
+                  <c:v>0.64737515585637295</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4225648859326601</c:v>
+                  <c:v>0.65571674226555599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.45393279749228</c:v>
+                  <c:v>0.66449768048991797</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.48538617799241</c:v>
+                  <c:v>0.673733052512967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5169034606998899</c:v>
+                  <c:v>0.683437695163848</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.54846369002332</c:v>
+                  <c:v>0.69362612293606096</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.58004660077087</c:v>
+                  <c:v>0.70431244804369497</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6116326872070601</c:v>
+                  <c:v>0.71551029816314704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.64320326169201</c:v>
+                  <c:v>0.72723273234793895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6747405028887099</c:v>
+                  <c:v>0.73949215564212201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.70622749370827</c:v>
+                  <c:v>0.75230023295442205</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.73764824932615</c:v>
+                  <c:v>0.76566780279157998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.76898773574125</c:v>
+                  <c:v>0.77960479148579798</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8002318794635599</c:v>
+                  <c:v>0.79412012858835901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8313675690042099</c:v>
+                  <c:v>0.80922166413964702</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.86238264890547</c:v>
+                  <c:v>0.82491608856461196</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8932659070878901</c:v>
+                  <c:v>0.84120885598179196</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9240070563113101</c:v>
+                  <c:v>0.85810411175185897</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.95459671054572</c:v>
+                  <c:v>0.87560462512669501</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.98502635703242</c:v>
+                  <c:v>0.89371172788972597</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0152883247860398</c:v>
+                  <c:v>0.91242525989980605</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.0453757502480898</c:v>
+                  <c:v>0.93174352246097802</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0752825407543098</c:v>
+                  <c:v>0.95166324043550599</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1050033364247902</c:v>
+                  <c:v>0.97217953399394796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1345334710281598</c:v>
+                  <c:v>0.99328590085054103</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1638689323131701</c:v>
+                  <c:v>1.01497420976175</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1930063222416099</c:v>
+                  <c:v>1.03723470596859</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2219428175000302</c:v>
+                  <c:v>1.06005602913785</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2506761306121099</c:v>
+                  <c:v>1.08342524420432</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2792044719223798</c:v>
+                  <c:v>1.10732788533658</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.3075265126735598</c:v>
+                  <c:v>1.1317480130461</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.33564134935571</c:v>
+                  <c:v>1.15666828423804</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.3635484694659201</c:v>
+                  <c:v>1.18207003476831</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3912477187811199</c:v>
+                  <c:v>1.20793337383139</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.4187392702155099</c:v>
+                  <c:v>1.2342372892664899</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.44602359430663</c:v>
+                  <c:v>1.26095976264304</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4731014313502699</c:v>
+                  <c:v>1.2880778927798699</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.4999737651846399</c:v>
+                  <c:v>1.3155680261725999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.52664179860697</c:v>
+                  <c:v>1.34340589265924</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5531069303923202</c:v>
+                  <c:v>1.37156674454934</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.5793707338727399</c:v>
+                  <c:v>1.4000254973825801</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6054349370263199</c:v>
+                  <c:v>1.4287568704692399</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.63130140401868</c:v>
+                  <c:v>1.4577355253995301</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.6569721181346999</c:v>
+                  <c:v>1.4869362007876199</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.6824491660346399</c:v>
+                  <c:v>1.5163338416371801</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.7077347232667699</c:v>
+                  <c:v>1.54590372187196</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.7328310409678198</c:v>
+                  <c:v>1.5756215587614</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.7577404336820202</c:v>
+                  <c:v>1.6054636181798101</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.7824652682309101</c:v>
+                  <c:v>1.63540680986013</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.8070079535667198</c:v>
+                  <c:v>1.66542877203198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.8313709315443698</c:v>
+                  <c:v>1.69550794506128</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.8555566685491902</c:v>
+                  <c:v>1.7256236339273101</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.8795676479199499</c:v>
+                  <c:v>1.7557560595780799</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.9034063631093399</c:v>
+                  <c:v>1.78588639939067</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.9270753115270498</c:v>
+                  <c:v>1.8159968171258101</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.9505769890132498</c:v>
+                  <c:v>1.84607048290487</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.9739138848933799</c:v>
+                  <c:v>1.87609158384893</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.9970884775678699</c:v>
+                  <c:v>1.9060453261058701</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3.02010323059335</c:v>
+                  <c:v>1.93591792905217</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3.0429605892147298</c:v>
+                  <c:v>1.9656966124930499</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.0656629773100401</c:v>
+                  <c:v>1.99536957770002</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.08821279471282</c:v>
+                  <c:v>2.0249259831218098</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.1106124148790402</c:v>
+                  <c:v>2.0543559155847699</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.1328641828680301</c:v>
+                  <c:v>2.0836503577660102</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.15497041360923</c:v>
+                  <c:v>2.1128011526793098</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.17693339042851</c:v>
+                  <c:v>2.1418009658624899</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.1987553638099899</c:v>
+                  <c:v>2.1706432458981402</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.2204385503710302</c:v>
+                  <c:v>2.1993221838402199</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.24198513202998</c:v>
+                  <c:v>2.2278326720572998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.2633972553477499</c:v>
+                  <c:v>2.2561702629427902</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3.2846770310259701</c:v>
+                  <c:v>2.2843311278829002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3.3058265335458299</c:v>
+                  <c:v>2.31231201681639</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.32684780093303</c:v>
+                  <c:v>2.34011021866672</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.34774283463558</c:v>
+                  <c:v>2.3677235228775801</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.3685135995022701</c:v>
+                  <c:v>2.3951501822374701</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.3891620238506501</c:v>
+                  <c:v>2.4223888771378301</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.4096899996144998</c:v>
+                  <c:v>2.4494386813726798</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.4300993825613801</c:v>
+                  <c:v>2.4762990295552898</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.4503919925720701</c:v>
+                  <c:v>2.5029696861990902</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.4705696139740998</c:v>
+                  <c:v>2.5294507164858202</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.4906339959224799</c:v>
+                  <c:v>2.55574245872321</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.5105868528213802</c:v>
+                  <c:v>2.58184549847683</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.5304298647810102</c:v>
+                  <c:v>2.6077606443468602</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.5501646781045499</c:v>
+                  <c:v>2.6334889053485302</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.56979290580052</c:v>
+                  <c:v>2.6590314698459201</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.5893161281163302</c:v>
+                  <c:v>2.68438968598175</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.6087358930892002</c:v>
+                  <c:v>2.7095650435404601</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.6280537171111802</c:v>
+                  <c:v>2.7345591571784098</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.6472710855049999</c:v>
+                  <c:v>2.75937375095255</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.6663894531082399</c:v>
+                  <c:v>2.7840106440778301</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.6854102448631001</c:v>
+                  <c:v>2.8084717378436599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.7043348564099299</c:v>
+                  <c:v>2.8327590036200001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.7231646546821202</c:v>
+                  <c:v>2.85687447188515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,7 +2522,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,1102 +2540,1102 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B2">
         <v>0.6</v>
       </c>
       <c r="C2">
-        <v>1.17741002251547</v>
+        <v>0.59999999999999898</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.0000000000000007E-2</v>
+        <v>-2.93</v>
       </c>
       <c r="B3">
-        <v>0.65667708422913396</v>
+        <v>0.60569441934294699</v>
       </c>
       <c r="C3">
-        <v>1.2072775617468301</v>
+        <v>0.60569441929068801</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.14000000000000001</v>
+        <v>-2.86</v>
       </c>
       <c r="B4">
-        <v>0.71056039072869903</v>
+        <v>0.61172148908461199</v>
       </c>
       <c r="C4">
-        <v>1.2374127705314399</v>
+        <v>0.61172148897669698</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.21</v>
+        <v>-2.79</v>
       </c>
       <c r="B5">
-        <v>0.76223676041441601</v>
+        <v>0.61809615185868605</v>
       </c>
       <c r="C5">
-        <v>1.26779302807815</v>
+        <v>0.61809615169158605</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.28000000000000003</v>
+        <v>-2.72</v>
       </c>
       <c r="B6">
-        <v>0.81211845917457903</v>
+        <v>0.62483353983877599</v>
       </c>
       <c r="C6">
-        <v>1.2983954201708701</v>
+        <v>0.62483353960885202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.35</v>
+        <v>-2.65</v>
       </c>
       <c r="B7">
-        <v>0.86050568879266698</v>
+        <v>0.63194892561996896</v>
       </c>
       <c r="C7">
-        <v>1.32919686684762</v>
+        <v>0.631948925323497</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.42</v>
+        <v>-2.58</v>
       </c>
       <c r="B8">
-        <v>0.90762311597025302</v>
+        <v>0.63945766850396801</v>
       </c>
       <c r="C8">
-        <v>1.3601742489973501</v>
+        <v>0.63945766813718297</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.49</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="B9">
-        <v>0.95364250987778298</v>
+        <v>0.64737515629723696</v>
       </c>
       <c r="C9">
-        <v>1.39130453216128</v>
+        <v>0.64737515585637295</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.56000000000000005</v>
+        <v>-2.44</v>
       </c>
       <c r="B10">
-        <v>0.99869744764166102</v>
+        <v>0.65571674278421399</v>
       </c>
       <c r="C10">
-        <v>1.4225648859326601</v>
+        <v>0.65571674226555599</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.63</v>
+        <v>-2.37</v>
       </c>
       <c r="B11">
-        <v>1.04289324393949</v>
+        <v>0.66449768108997398</v>
       </c>
       <c r="C11">
-        <v>1.45393279749228</v>
+        <v>0.66449768048991797</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.7</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="B12">
-        <v>1.0863138761497</v>
+        <v>0.67373305319784904</v>
       </c>
       <c r="C12">
-        <v>1.48538617799241</v>
+        <v>0.673733052512967</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.77</v>
+        <v>-2.23</v>
       </c>
       <c r="B13">
-        <v>1.1290269481923101</v>
+        <v>0.68343769593673598</v>
       </c>
       <c r="C13">
-        <v>1.5169034606998899</v>
+        <v>0.683437695163848</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.84</v>
+        <v>-2.16</v>
       </c>
       <c r="B14">
-        <v>1.17108733267659</v>
+        <v>0.69362612379981303</v>
       </c>
       <c r="C14">
-        <v>1.54846369002332</v>
+        <v>0.69362612293606096</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.91</v>
+        <v>-2.09</v>
       </c>
       <c r="B15">
-        <v>1.2125398973681401</v>
+        <v>0.70431244900077095</v>
       </c>
       <c r="C15">
-        <v>1.58004660077087</v>
+        <v>0.70431244804369497</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.98</v>
+        <v>-2.02</v>
       </c>
       <c r="B16">
-        <v>1.25342158157618</v>
+        <v>0.715510299215529</v>
       </c>
       <c r="C16">
-        <v>1.6116326872070601</v>
+        <v>0.71551029816314704</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1.05</v>
+        <v>-1.95</v>
       </c>
       <c r="B17">
-        <v>1.29376300087818</v>
+        <v>0.72723273349705997</v>
       </c>
       <c r="C17">
-        <v>1.64320326169201</v>
+        <v>0.72723273234793895</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1.1200000000000001</v>
+        <v>-1.88</v>
       </c>
       <c r="B18">
-        <v>1.33358970290262</v>
+        <v>0.73949215688879699</v>
       </c>
       <c r="C18">
-        <v>1.6747405028887099</v>
+        <v>0.73949215564212201</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1.19</v>
+        <v>-1.81</v>
       </c>
       <c r="B19">
-        <v>1.37292316040592</v>
+        <v>0.75230023429878501</v>
       </c>
       <c r="C19">
-        <v>1.70622749370827</v>
+        <v>0.75230023295442205</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1.26</v>
+        <v>-1.74</v>
       </c>
       <c r="B20">
-        <v>1.4117815634373401</v>
+        <v>0.76566780423304104</v>
       </c>
       <c r="C20">
-        <v>1.73764824932615</v>
+        <v>0.76566780279157998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.33</v>
+        <v>-1.67</v>
       </c>
       <c r="B21">
-        <v>1.4501804556767</v>
+        <v>0.77960479302300001</v>
       </c>
       <c r="C21">
-        <v>1.76898773574125</v>
+        <v>0.77960479148579798</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="B22">
-        <v>1.4881332483949801</v>
+        <v>0.79412013021916805</v>
       </c>
       <c r="C22">
-        <v>1.8002318794635599</v>
+        <v>0.79412012858835901</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.47</v>
+        <v>-1.53</v>
       </c>
       <c r="B23">
-        <v>1.52565163724639</v>
+        <v>0.80922166586114697</v>
       </c>
       <c r="C23">
-        <v>1.8313675690042099</v>
+        <v>0.80922166413964702</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.54</v>
+        <v>-1.46</v>
       </c>
       <c r="B24">
-        <v>1.56274594116947</v>
+        <v>0.82491609037312796</v>
       </c>
       <c r="C24">
-        <v>1.86238264890547</v>
+        <v>0.82491608856461196</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1.61</v>
+        <v>-1.39</v>
       </c>
       <c r="B25">
-        <v>1.59942537834092</v>
+        <v>0.84120885787293298</v>
       </c>
       <c r="C25">
-        <v>1.8932659070878901</v>
+        <v>0.84120885598179196</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.68</v>
+        <v>-1.32</v>
       </c>
       <c r="B26">
-        <v>1.6356982909131199</v>
+        <v>0.85810411372057804</v>
       </c>
       <c r="C26">
-        <v>1.9240070563113101</v>
+        <v>0.85810411175185897</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="B27">
-        <v>1.6715723278510599</v>
+        <v>0.87560462716737297</v>
       </c>
       <c r="C27">
-        <v>1.95459671054572</v>
+        <v>0.87560462512669501</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1.82</v>
+        <v>-1.18</v>
       </c>
       <c r="B28">
-        <v>1.7070545933440699</v>
+        <v>0.89371172999627502</v>
       </c>
       <c r="C28">
-        <v>1.98502635703242</v>
+        <v>0.89371172788972597</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.89</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="B29">
-        <v>1.7421517668469699</v>
+        <v>0.912425262065783</v>
       </c>
       <c r="C29">
-        <v>2.0152883247860398</v>
+        <v>0.91242525989980605</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.96</v>
+        <v>-1.04</v>
       </c>
       <c r="B30">
-        <v>1.7768701996942999</v>
+        <v>0.93174352467971699</v>
       </c>
       <c r="C30">
-        <v>2.0453757502480898</v>
+        <v>0.93174352246097802</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.0299999999999998</v>
+        <v>-0.97000000000000097</v>
       </c>
       <c r="B31">
-        <v>1.81121599235251</v>
+        <v>0.95166324270025304</v>
       </c>
       <c r="C31">
-        <v>2.0752825407543098</v>
+        <v>0.95166324043550599</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2.1</v>
+        <v>-0.90000000000000102</v>
       </c>
       <c r="B32">
-        <v>1.8451950556715999</v>
+        <v>0.97217953629800202</v>
       </c>
       <c r="C32">
-        <v>2.1050033364247902</v>
+        <v>0.97217953399394796</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.17</v>
+        <v>-0.83000000000000096</v>
       </c>
       <c r="B33">
-        <v>1.8788131589288699</v>
+        <v>0.99328590318739096</v>
       </c>
       <c r="C33">
-        <v>2.1345334710281598</v>
+        <v>0.99328590085054103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.2400000000000002</v>
+        <v>-0.76000000000000101</v>
       </c>
       <c r="B34">
-        <v>1.91207596699317</v>
+        <v>1.0149742121252101</v>
       </c>
       <c r="C34">
-        <v>2.1638689323131701</v>
+        <v>1.01497420976175</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.31</v>
+        <v>-0.69000000000000095</v>
       </c>
       <c r="B35">
-        <v>1.9449890685559399</v>
+        <v>1.0372347083529101</v>
       </c>
       <c r="C35">
-        <v>2.1930063222416099</v>
+        <v>1.03723470596859</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.38</v>
+        <v>-0.62000000000000099</v>
       </c>
       <c r="B36">
-        <v>1.97755799705817</v>
+        <v>1.06005603153782</v>
       </c>
       <c r="C36">
-        <v>2.2219428175000302</v>
+        <v>1.06005602913785</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2.4500000000000002</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="B37">
-        <v>2.00978824567804</v>
+        <v>1.08342524661537</v>
       </c>
       <c r="C37">
-        <v>2.2506761306121099</v>
+        <v>1.08342524420432</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2.52</v>
+        <v>-0.48</v>
       </c>
       <c r="B38">
-        <v>2.04168527752236</v>
+        <v>1.10732788775483</v>
       </c>
       <c r="C38">
-        <v>2.2792044719223798</v>
+        <v>1.10732788533658</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2.59</v>
+        <v>-0.41</v>
       </c>
       <c r="B39">
-        <v>2.0732545319779399</v>
+        <v>1.1317480154683399</v>
       </c>
       <c r="C39">
-        <v>2.3075265126735598</v>
+        <v>1.1317480130461</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2.6599999999999899</v>
+        <v>-0.34</v>
       </c>
       <c r="B40">
-        <v>2.1045014280215399</v>
+        <v>1.1566682866618201</v>
       </c>
       <c r="C40">
-        <v>2.33564134935571</v>
+        <v>1.15666828423804</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2.7299999999999902</v>
+        <v>-0.27</v>
       </c>
       <c r="B41">
-        <v>2.1354313651537602</v>
+        <v>1.18207003719186</v>
       </c>
       <c r="C41">
-        <v>2.3635484694659201</v>
+        <v>1.18207003476831</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2.7999999999999901</v>
+        <v>-0.2</v>
       </c>
       <c r="B42">
-        <v>2.16604972250913</v>
+        <v>1.20793337625362</v>
       </c>
       <c r="C42">
-        <v>2.3912477187811199</v>
+        <v>1.20793337383139</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2.8699999999999899</v>
+        <v>-0.13</v>
       </c>
       <c r="B43">
-        <v>2.1963618565988501</v>
+        <v>1.23423729168688</v>
       </c>
       <c r="C43">
-        <v>2.4187392702155099</v>
+        <v>1.2342372892664899</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2.9399999999999902</v>
+        <v>-6.0000000000000803E-2</v>
       </c>
       <c r="B44">
-        <v>2.2263730980619898</v>
+        <v>1.26095976506158</v>
       </c>
       <c r="C44">
-        <v>2.44602359430663</v>
+        <v>1.26095976264304</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>3.00999999999999</v>
+        <v>9.9999999999991207E-3</v>
       </c>
       <c r="B45">
-        <v>2.2560887477318898</v>
+        <v>1.28807789519697</v>
       </c>
       <c r="C45">
-        <v>2.4731014313502699</v>
+        <v>1.2880778927798699</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3.0799999999999899</v>
+        <v>7.99999999999991E-2</v>
       </c>
       <c r="B46">
-        <v>2.2855140722669498</v>
+        <v>1.3155680285889899</v>
       </c>
       <c r="C46">
-        <v>2.4999737651846399</v>
+        <v>1.3155680261725999</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>3.1499999999999901</v>
+        <v>0.149999999999999</v>
       </c>
       <c r="B47">
-        <v>2.31465429954604</v>
+        <v>1.3434058950758201</v>
       </c>
       <c r="C47">
-        <v>2.52664179860697</v>
+        <v>1.34340589265924</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>3.21999999999999</v>
+        <v>0.219999999999999</v>
       </c>
       <c r="B48">
-        <v>2.34351461398778</v>
+        <v>1.37156674696715</v>
       </c>
       <c r="C48">
-        <v>2.5531069303923202</v>
+        <v>1.37156674454934</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>3.2899999999999898</v>
+        <v>0.28999999999999898</v>
       </c>
       <c r="B49">
-        <v>2.3721001519185498</v>
+        <v>1.40002549980264</v>
       </c>
       <c r="C49">
-        <v>2.5793707338727399</v>
+        <v>1.4000254973825801</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>3.3599999999999901</v>
+        <v>0.35999999999999899</v>
       </c>
       <c r="B50">
-        <v>2.4004159970855099</v>
+        <v>1.42875687289247</v>
       </c>
       <c r="C50">
-        <v>2.6054349370263199</v>
+        <v>1.4287568704692399</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>3.4299999999999899</v>
+        <v>0.42999999999999899</v>
       </c>
       <c r="B51">
-        <v>2.42846717638712</v>
+        <v>1.4577355278267099</v>
       </c>
       <c r="C51">
-        <v>2.63130140401868</v>
+        <v>1.4577355253995301</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3.4999999999999898</v>
+        <v>0.499999999999999</v>
       </c>
       <c r="B52">
-        <v>2.45625865587381</v>
+        <v>1.4869362032193001</v>
       </c>
       <c r="C52">
-        <v>2.6569721181346999</v>
+        <v>1.4869362007876199</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3.5699999999999901</v>
+        <v>0.56999999999999895</v>
       </c>
       <c r="B53">
-        <v>2.4837953370556298</v>
+        <v>1.51633384407365</v>
       </c>
       <c r="C53">
-        <v>2.6824491660346399</v>
+        <v>1.5163338416371801</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3.6399999999999899</v>
+        <v>0.63999999999999901</v>
       </c>
       <c r="B54">
-        <v>2.5110820535403602</v>
+        <v>1.5459037243132101</v>
       </c>
       <c r="C54">
-        <v>2.7077347232667699</v>
+        <v>1.54590372187196</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3.7099999999999902</v>
+        <v>0.70999999999999897</v>
       </c>
       <c r="B55">
-        <v>2.5381235680149001</v>
+        <v>1.57562156120712</v>
       </c>
       <c r="C55">
-        <v>2.7328310409678198</v>
+        <v>1.5756215587614</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3.77999999999999</v>
+        <v>0.77999999999999903</v>
       </c>
       <c r="B56">
-        <v>2.5649245695745</v>
+        <v>1.60546362062939</v>
       </c>
       <c r="C56">
-        <v>2.7577404336820202</v>
+        <v>1.6054636181798101</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3.8499999999999899</v>
+        <v>0.84999999999999898</v>
       </c>
       <c r="B57">
-        <v>2.5914896713974498</v>
+        <v>1.6354068123126599</v>
       </c>
       <c r="C57">
-        <v>2.7824652682309101</v>
+        <v>1.63540680986013</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3.9199999999999902</v>
+        <v>0.91999999999999904</v>
       </c>
       <c r="B58">
-        <v>2.61782340875786</v>
+        <v>1.6654287744862999</v>
       </c>
       <c r="C58">
-        <v>2.8070079535667198</v>
+        <v>1.66542877203198</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3.98999999999999</v>
+        <v>0.98999999999999899</v>
       </c>
       <c r="B59">
-        <v>2.6439302373650402</v>
+        <v>1.69550794751602</v>
       </c>
       <c r="C59">
-        <v>2.8313709315443698</v>
+        <v>1.69550794506128</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>4.0599999999999898</v>
+        <v>1.0599999999999901</v>
       </c>
       <c r="B60">
-        <v>2.6698145320151001</v>
+        <v>1.7256236363808699</v>
       </c>
       <c r="C60">
-        <v>2.8555566685491902</v>
+        <v>1.7256236339273101</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4.1299999999999901</v>
+        <v>1.1299999999999899</v>
       </c>
       <c r="B61">
-        <v>2.6954805855384301</v>
+        <v>1.75575606202877</v>
       </c>
       <c r="C61">
-        <v>2.8795676479199499</v>
+        <v>1.7557560595780799</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4.1999999999999904</v>
+        <v>1.19999999999999</v>
       </c>
       <c r="B62">
-        <v>2.7209326080252398</v>
+        <v>1.78588640183667</v>
       </c>
       <c r="C62">
-        <v>2.9034063631093399</v>
+        <v>1.78588639939067</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>4.2699999999999898</v>
+        <v>1.26999999999999</v>
       </c>
       <c r="B63">
-        <v>2.7461747263103802</v>
+        <v>1.8159968195652501</v>
       </c>
       <c r="C63">
-        <v>2.9270753115270498</v>
+        <v>1.8159968171258101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>4.3399999999999901</v>
+        <v>1.3399999999999901</v>
       </c>
       <c r="B64">
-        <v>2.7712109836987402</v>
+        <v>1.84607048533587</v>
       </c>
       <c r="C64">
-        <v>2.9505769890132498</v>
+        <v>1.84607048290487</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>4.4099999999999904</v>
+        <v>1.41</v>
       </c>
       <c r="B65">
-        <v>2.7960453399118501</v>
+        <v>1.8760915862696199</v>
       </c>
       <c r="C65">
-        <v>2.9739138848933799</v>
+        <v>1.87609158384893</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4.4799999999999898</v>
+        <v>1.48</v>
       </c>
       <c r="B66">
-        <v>2.8206816712373199</v>
+        <v>1.9060453285144401</v>
       </c>
       <c r="C66">
-        <v>2.9970884775678699</v>
+        <v>1.9060453261058701</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>4.5499999999999901</v>
+        <v>1.55</v>
       </c>
       <c r="B67">
-        <v>2.8451237708625698</v>
+        <v>1.9359179314469099</v>
       </c>
       <c r="C67">
-        <v>3.02010323059335</v>
+        <v>1.93591792905217</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4.6199999999999903</v>
+        <v>1.62</v>
       </c>
       <c r="B68">
-        <v>2.8693753493754599</v>
+        <v>1.96569661487234</v>
       </c>
       <c r="C68">
-        <v>3.0429605892147298</v>
+        <v>1.9656966124930499</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4.6899999999999897</v>
+        <v>1.69</v>
       </c>
       <c r="B69">
-        <v>2.8934400354148502</v>
+        <v>1.9953695800623701</v>
       </c>
       <c r="C69">
-        <v>3.0656629773100401</v>
+        <v>1.99536957770002</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>4.76</v>
+        <v>1.76</v>
       </c>
       <c r="B70">
-        <v>2.9173213764552002</v>
+        <v>2.0249259854658699</v>
       </c>
       <c r="C70">
-        <v>3.08821279471282</v>
+        <v>2.0249259831218098</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4.83</v>
+        <v>1.83</v>
       </c>
       <c r="B71">
-        <v>2.9410228397100999</v>
+        <v>2.0543559179093398</v>
       </c>
       <c r="C71">
-        <v>3.1106124148790402</v>
+        <v>2.0543559155847699</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>4.9000000000000004</v>
+        <v>1.9</v>
       </c>
       <c r="B72">
-        <v>2.96454781314057</v>
+        <v>2.0836503600700298</v>
       </c>
       <c r="C72">
-        <v>3.1328641828680301</v>
+        <v>2.0836503577660102</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4.97</v>
+        <v>1.97</v>
       </c>
       <c r="B73">
-        <v>2.9878996065549099</v>
+        <v>2.1128011549618799</v>
       </c>
       <c r="C73">
-        <v>3.15497041360923</v>
+        <v>2.1128011526793098</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5.04</v>
+        <v>2.04</v>
       </c>
       <c r="B74">
-        <v>3.0110814527878902</v>
+        <v>2.14180096812286</v>
       </c>
       <c r="C74">
-        <v>3.17693339042851</v>
+        <v>2.1418009658624899</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5.1100000000000003</v>
+        <v>2.11</v>
       </c>
       <c r="B75">
-        <v>3.0340965089477598</v>
+        <v>2.1706432481357099</v>
       </c>
       <c r="C75">
-        <v>3.1987553638099899</v>
+        <v>2.1706432458981402</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="B76">
-        <v>3.0569478577207998</v>
+        <v>2.1993221860545198</v>
       </c>
       <c r="C76">
-        <v>3.2204385503710302</v>
+        <v>2.1993221838402199</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="B77">
-        <v>3.0796385087236202</v>
+        <v>2.2278326742479901</v>
       </c>
       <c r="C77">
-        <v>3.24198513202998</v>
+        <v>2.2278326720572998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="B78">
-        <v>3.1021713998944702</v>
+        <v>2.25617026510964</v>
       </c>
       <c r="C78">
-        <v>3.2633972553477499</v>
+        <v>2.2561702629427902</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5.39</v>
+        <v>2.3899999999999899</v>
       </c>
       <c r="B79">
-        <v>3.1245493989155699</v>
+        <v>2.28433113002581</v>
       </c>
       <c r="C79">
-        <v>3.2846770310259701</v>
+        <v>2.2843311278829002</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5.46</v>
+        <v>2.4599999999999902</v>
       </c>
       <c r="B80">
-        <v>3.1467753046589899</v>
+        <v>2.3123120189353501</v>
       </c>
       <c r="C80">
-        <v>3.3058265335458299</v>
+        <v>2.31231201681639</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5.53</v>
+        <v>2.52999999999999</v>
       </c>
       <c r="B81">
-        <v>3.1688518486497399</v>
+        <v>2.3401102207618001</v>
       </c>
       <c r="C81">
-        <v>3.32684780093303</v>
+        <v>2.34011021866672</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5.6</v>
+        <v>2.5999999999999899</v>
       </c>
       <c r="B82">
-        <v>3.1907816965398599</v>
+        <v>2.3677235249489401</v>
       </c>
       <c r="C82">
-        <v>3.34774283463558</v>
+        <v>2.3677235228775801</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5.67</v>
+        <v>2.6699999999999902</v>
       </c>
       <c r="B83">
-        <v>3.21256744958818</v>
+        <v>2.39515018428534</v>
       </c>
       <c r="C83">
-        <v>3.3685135995022701</v>
+        <v>2.3951501822374701</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5.74</v>
+        <v>2.73999999999999</v>
       </c>
       <c r="B84">
-        <v>3.2342116461411599</v>
+        <v>2.4223888791624799</v>
       </c>
       <c r="C84">
-        <v>3.3891620238506501</v>
+        <v>2.4223888771378301</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>5.81</v>
+        <v>2.8099999999999898</v>
       </c>
       <c r="B85">
-        <v>3.25571676311018</v>
+        <v>2.4494386833744599</v>
       </c>
       <c r="C85">
-        <v>3.4096899996144998</v>
+        <v>2.4494386813726798</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5.88</v>
+        <v>2.8799999999999901</v>
       </c>
       <c r="B86">
-        <v>3.27708521744175</v>
+        <v>2.4762990315345599</v>
       </c>
       <c r="C86">
-        <v>3.4300993825613801</v>
+        <v>2.4762990295552898</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5.95</v>
+        <v>2.94999999999999</v>
       </c>
       <c r="B87">
-        <v>3.29831936757716</v>
+        <v>2.5029696881562602</v>
       </c>
       <c r="C87">
-        <v>3.4503919925720701</v>
+        <v>2.5029696861990902</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6.02</v>
+        <v>3.0199999999999898</v>
       </c>
       <c r="B88">
-        <v>3.3194215148985302</v>
+        <v>2.5294507184213302</v>
       </c>
       <c r="C88">
-        <v>3.4705696139740998</v>
+        <v>2.5294507164858202</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6.09</v>
+        <v>3.0899999999999901</v>
       </c>
       <c r="B89">
-        <v>3.3403939051588498</v>
+        <v>2.5557424606375099</v>
       </c>
       <c r="C89">
-        <v>3.4906339959224799</v>
+        <v>2.55574245872321</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6.16</v>
+        <v>3.1599999999999899</v>
       </c>
       <c r="B90">
-        <v>3.3612387298935902</v>
+        <v>2.58184550037039</v>
       </c>
       <c r="C90">
-        <v>3.5105868528213802</v>
+        <v>2.58184549847683</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6.23</v>
+        <v>3.2299999999999902</v>
       </c>
       <c r="B91">
-        <v>3.3819581278120099</v>
+        <v>2.6077606462201599</v>
       </c>
       <c r="C91">
-        <v>3.5304298647810102</v>
+        <v>2.6077606443468602</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6.3</v>
+        <v>3.2999999999999901</v>
       </c>
       <c r="B92">
-        <v>3.4025541861664599</v>
+        <v>2.63348890720206</v>
       </c>
       <c r="C92">
-        <v>3.5501646781045499</v>
+        <v>2.6334889053485302</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6.37</v>
+        <v>3.3699999999999899</v>
       </c>
       <c r="B93">
-        <v>3.4230289420983699</v>
+        <v>2.6590314716801702</v>
       </c>
       <c r="C93">
-        <v>3.56979290580052</v>
+        <v>2.6590314698459201</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6.44</v>
+        <v>3.4399999999999902</v>
       </c>
       <c r="B94">
-        <v>3.4433843839596201</v>
+        <v>2.6843896877972</v>
       </c>
       <c r="C94">
-        <v>3.5893161281163302</v>
+        <v>2.68438968598175</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6.51</v>
+        <v>3.50999999999999</v>
       </c>
       <c r="B95">
-        <v>3.4636224526083801</v>
+        <v>2.7095650453375999</v>
       </c>
       <c r="C95">
-        <v>3.6087358930892002</v>
+        <v>2.7095650435404601</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6.58</v>
+        <v>3.5799999999999899</v>
       </c>
       <c r="B96">
-        <v>3.4837450426786898</v>
+        <v>2.7345591589577301</v>
       </c>
       <c r="C96">
-        <v>3.6280537171111802</v>
+        <v>2.7345591571784098</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6.65</v>
+        <v>3.6499999999999901</v>
       </c>
       <c r="B97">
-        <v>3.5037540038231101</v>
+        <v>2.7593737527145001</v>
       </c>
       <c r="C97">
-        <v>3.6472710855049999</v>
+        <v>2.75937375095255</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6.72</v>
+        <v>3.71999999999999</v>
       </c>
       <c r="B98">
-        <v>3.5236511419279899</v>
+        <v>2.7840106458228799</v>
       </c>
       <c r="C98">
-        <v>3.6663894531082399</v>
+        <v>2.7840106440778301</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6.79</v>
+        <v>3.7899999999999898</v>
       </c>
       <c r="B99">
-        <v>3.5434382203010801</v>
+        <v>2.80847173957227</v>
       </c>
       <c r="C99">
-        <v>3.6854102448631001</v>
+        <v>2.8084717378436599</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6.86</v>
+        <v>3.8599999999999901</v>
       </c>
       <c r="B100">
-        <v>3.56311696083129</v>
+        <v>2.8327590053326102</v>
       </c>
       <c r="C100">
-        <v>3.7043348564099299</v>
+        <v>2.8327590036200001</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6.93</v>
+        <v>3.9299999999999899</v>
       </c>
       <c r="B101">
-        <v>3.5826890451203899</v>
+        <v>2.8568744735821801</v>
       </c>
       <c r="C101">
-        <v>3.7231646546821202</v>
+        <v>2.85687447188515</v>
       </c>
     </row>
   </sheetData>
